--- a/public/excel/users.xlsx
+++ b/public/excel/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="83">
   <si>
     <t>useruser</t>
   </si>
@@ -254,16 +254,33 @@
   </si>
   <si>
     <t>role</t>
+  </si>
+  <si>
+    <t>BELOUADIF</t>
+  </si>
+  <si>
+    <t>zakariaebelouadif@gmail.com</t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -286,14 +303,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -310,8 +330,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:D38" totalsRowShown="0">
-  <autoFilter ref="A1:D38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:D39" totalsRowShown="0">
+  <autoFilter ref="A1:D39"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Nom"/>
     <tableColumn id="2" name="Gmail"/>
@@ -609,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,25 +658,25 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -667,10 +687,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -681,10 +701,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -695,10 +715,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -709,10 +729,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -723,10 +743,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -737,10 +757,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -751,10 +771,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -765,10 +785,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -779,10 +799,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -793,10 +813,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
@@ -807,10 +827,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -821,10 +841,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
@@ -835,10 +855,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
@@ -849,10 +869,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
@@ -863,10 +883,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
@@ -877,10 +897,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
@@ -891,10 +911,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
@@ -905,10 +925,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
@@ -919,10 +939,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
@@ -933,10 +953,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
@@ -947,10 +967,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
@@ -961,10 +981,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
@@ -975,10 +995,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
@@ -989,10 +1009,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
         <v>0</v>
@@ -1003,10 +1023,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
         <v>0</v>
@@ -1017,10 +1037,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
@@ -1031,10 +1051,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -1045,10 +1065,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
@@ -1059,10 +1079,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
         <v>0</v>
@@ -1073,10 +1093,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
@@ -1087,10 +1107,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
@@ -1101,10 +1121,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
         <v>0</v>
@@ -1115,10 +1135,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
         <v>0</v>
@@ -1129,10 +1149,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
         <v>0</v>
@@ -1143,23 +1163,40 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>77</v>
       </c>
-      <c r="C38" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>